--- a/tally.xlsx
+++ b/tally.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chocomint\Desktop\PR2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7DA1B2-6EB5-4779-AB19-3EE027DA01A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277A127A-86F6-4F49-BBE9-129E361DAD48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="23">
   <si>
     <t>No</t>
   </si>
@@ -101,10 +101,10 @@
     <t>M</t>
   </si>
   <si>
-    <t>$</t>
+    <t>Q17</t>
   </si>
   <si>
-    <t>Q17</t>
+    <t>Q4</t>
   </si>
 </sst>
 </file>
@@ -427,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="C128" sqref="C128"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,7 +456,7 @@
         <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K1" t="s">
         <v>7</v>
@@ -495,12 +495,12 @@
         <v>18</v>
       </c>
       <c r="Y1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <f>ROW(A1)</f>
+        <f t="shared" ref="A2:A33" si="0">ROW(A1)</f>
         <v>1</v>
       </c>
       <c r="B2" s="1">
@@ -566,7 +566,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <f>ROW(A2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B3" s="1">
@@ -632,7 +632,7 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <f>ROW(A3)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B4" s="1">
@@ -698,7 +698,7 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <f>ROW(A4)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" s="1">
@@ -764,7 +764,7 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <f>ROW(A5)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" s="1">
@@ -830,7 +830,7 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <f>ROW(A6)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" s="1">
@@ -896,7 +896,7 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <f>ROW(A7)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" s="1">
@@ -962,7 +962,7 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <f>ROW(A8)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" s="1">
@@ -1028,7 +1028,7 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <f>ROW(A9)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" s="1">
@@ -1094,7 +1094,7 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <f>ROW(A10)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" s="1">
@@ -1160,7 +1160,7 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <f>ROW(A11)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" s="1">
@@ -1226,7 +1226,7 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <f>ROW(A12)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" s="1">
@@ -1292,7 +1292,7 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <f>ROW(A13)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" s="1">
@@ -1358,7 +1358,7 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <f>ROW(A14)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" s="1">
@@ -1424,7 +1424,7 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <f>ROW(A15)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B16" s="1">
@@ -1490,7 +1490,7 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <f>ROW(A16)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17" s="1">
@@ -1556,7 +1556,7 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <f>ROW(A17)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B18" s="1">
@@ -1622,7 +1622,7 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <f>ROW(A18)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" s="1">
@@ -1688,7 +1688,7 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <f>ROW(A19)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" s="1">
@@ -1754,7 +1754,7 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <f>ROW(A20)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" s="1">
@@ -1820,7 +1820,7 @@
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <f>ROW(A21)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22" s="1">
@@ -1886,7 +1886,7 @@
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <f>ROW(A22)</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23" s="1">
@@ -1952,7 +1952,7 @@
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <f>ROW(A23)</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B24" s="1">
@@ -2018,7 +2018,7 @@
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <f>ROW(A24)</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B25" s="1">
@@ -2084,7 +2084,7 @@
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <f>ROW(A25)</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B26" s="1">
@@ -2150,7 +2150,7 @@
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <f>ROW(A26)</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B27" s="1">
@@ -2216,7 +2216,7 @@
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <f>ROW(A27)</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B28" s="1">
@@ -2282,7 +2282,7 @@
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <f>ROW(A28)</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B29" s="1">
@@ -2348,7 +2348,7 @@
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <f>ROW(A29)</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B30" s="1">
@@ -2414,7 +2414,7 @@
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <f>ROW(A30)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B31" s="1">
@@ -2480,7 +2480,7 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <f>ROW(A31)</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B32" s="1">
@@ -2546,7 +2546,7 @@
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <f>ROW(A32)</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B33" s="1">
@@ -2612,7 +2612,7 @@
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <f>ROW(A33)</f>
+        <f t="shared" ref="A34:A65" si="1">ROW(A33)</f>
         <v>33</v>
       </c>
       <c r="B34" s="1">
@@ -2678,7 +2678,7 @@
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <f>ROW(A34)</f>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="B35" s="1">
@@ -2744,7 +2744,7 @@
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <f>ROW(A35)</f>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="B36" s="1">
@@ -2810,7 +2810,7 @@
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <f>ROW(A36)</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="B37" s="1">
@@ -2876,7 +2876,7 @@
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <f>ROW(A37)</f>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="B38" s="1">
@@ -2942,7 +2942,7 @@
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <f>ROW(A38)</f>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="B39" s="1">
@@ -3008,7 +3008,7 @@
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <f>ROW(A39)</f>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="B40" s="1">
@@ -3074,7 +3074,7 @@
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <f>ROW(A40)</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="B41" s="1">
@@ -3140,7 +3140,7 @@
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <f>ROW(A41)</f>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="B42" s="1">
@@ -3206,7 +3206,7 @@
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <f>ROW(A42)</f>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="B43" s="1">
@@ -3272,7 +3272,7 @@
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <f>ROW(A43)</f>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="B44" s="1">
@@ -3338,7 +3338,7 @@
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <f>ROW(A44)</f>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="B45" s="1">
@@ -3404,7 +3404,7 @@
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <f>ROW(A45)</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="B46" s="1">
@@ -3470,7 +3470,7 @@
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <f>ROW(A46)</f>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="B47" s="1">
@@ -3536,7 +3536,7 @@
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <f>ROW(A47)</f>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="B48" s="1">
@@ -3602,7 +3602,7 @@
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <f>ROW(A48)</f>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="B49" s="1">
@@ -3668,7 +3668,7 @@
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <f>ROW(A49)</f>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="B50" s="1">
@@ -3734,7 +3734,7 @@
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <f>ROW(A50)</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="B51" s="1">
@@ -3800,7 +3800,7 @@
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <f>ROW(A51)</f>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="B52" s="1">
@@ -3866,7 +3866,7 @@
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <f>ROW(A52)</f>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="B53" s="1">
@@ -3932,7 +3932,7 @@
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <f>ROW(A53)</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="B54" s="1">
@@ -3998,7 +3998,7 @@
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <f>ROW(A54)</f>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="B55" s="1">
@@ -4064,7 +4064,7 @@
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <f>ROW(A55)</f>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="B56" s="1">
@@ -4130,7 +4130,7 @@
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <f>ROW(A56)</f>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="B57" s="1">
@@ -4196,7 +4196,7 @@
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <f>ROW(A57)</f>
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="B58" s="1">
@@ -4262,7 +4262,7 @@
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <f>ROW(A58)</f>
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="B59" s="1">
@@ -4328,7 +4328,7 @@
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <f>ROW(A59)</f>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="B60" s="1">
@@ -4394,7 +4394,7 @@
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <f>ROW(A60)</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="B61" s="1">
@@ -4460,7 +4460,7 @@
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <f>ROW(A61)</f>
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
       <c r="B62" s="1">
@@ -4526,7 +4526,7 @@
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <f>ROW(A62)</f>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="B63" s="1">
@@ -4592,7 +4592,7 @@
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <f>ROW(A63)</f>
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
       <c r="B64" s="1">
@@ -4658,7 +4658,7 @@
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <f>ROW(A64)</f>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="B65" s="1">
@@ -4724,7 +4724,7 @@
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <f>ROW(A65)</f>
+        <f t="shared" ref="A66:A97" si="2">ROW(A65)</f>
         <v>65</v>
       </c>
       <c r="B66" s="1">
@@ -4790,7 +4790,7 @@
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <f>ROW(A66)</f>
+        <f t="shared" si="2"/>
         <v>66</v>
       </c>
       <c r="B67" s="1">
@@ -4856,7 +4856,7 @@
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <f>ROW(A67)</f>
+        <f t="shared" si="2"/>
         <v>67</v>
       </c>
       <c r="B68" s="1">
@@ -4922,7 +4922,7 @@
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <f>ROW(A68)</f>
+        <f t="shared" si="2"/>
         <v>68</v>
       </c>
       <c r="B69" s="1">
@@ -4988,7 +4988,7 @@
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <f>ROW(A69)</f>
+        <f t="shared" si="2"/>
         <v>69</v>
       </c>
       <c r="B70" s="1">
@@ -5054,7 +5054,7 @@
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <f>ROW(A70)</f>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="B71" s="1">
@@ -5120,7 +5120,7 @@
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <f>ROW(A71)</f>
+        <f t="shared" si="2"/>
         <v>71</v>
       </c>
       <c r="B72" s="1">
@@ -5186,7 +5186,7 @@
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <f>ROW(A72)</f>
+        <f t="shared" si="2"/>
         <v>72</v>
       </c>
       <c r="B73" s="1">
@@ -5252,7 +5252,7 @@
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <f>ROW(A73)</f>
+        <f t="shared" si="2"/>
         <v>73</v>
       </c>
       <c r="B74" s="1">
@@ -5318,7 +5318,7 @@
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <f>ROW(A74)</f>
+        <f t="shared" si="2"/>
         <v>74</v>
       </c>
       <c r="B75" s="1">
@@ -5384,7 +5384,7 @@
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <f>ROW(A75)</f>
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
       <c r="B76" s="1">
@@ -5450,7 +5450,7 @@
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <f>ROW(A76)</f>
+        <f t="shared" si="2"/>
         <v>76</v>
       </c>
       <c r="B77" s="1">
@@ -5516,7 +5516,7 @@
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <f>ROW(A77)</f>
+        <f t="shared" si="2"/>
         <v>77</v>
       </c>
       <c r="B78" s="1">
@@ -5582,7 +5582,7 @@
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <f>ROW(A78)</f>
+        <f t="shared" si="2"/>
         <v>78</v>
       </c>
       <c r="B79" s="1">
@@ -5648,7 +5648,7 @@
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <f>ROW(A79)</f>
+        <f t="shared" si="2"/>
         <v>79</v>
       </c>
       <c r="B80" s="1">
@@ -5714,7 +5714,7 @@
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <f>ROW(A80)</f>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="B81" s="1">
@@ -5780,7 +5780,7 @@
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <f>ROW(A81)</f>
+        <f t="shared" si="2"/>
         <v>81</v>
       </c>
       <c r="B82" s="1">
@@ -5846,7 +5846,7 @@
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <f>ROW(A82)</f>
+        <f t="shared" si="2"/>
         <v>82</v>
       </c>
       <c r="B83" s="1">
@@ -5912,7 +5912,7 @@
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <f>ROW(A83)</f>
+        <f t="shared" si="2"/>
         <v>83</v>
       </c>
       <c r="B84" s="1">
@@ -5978,7 +5978,7 @@
     </row>
     <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <f>ROW(A84)</f>
+        <f t="shared" si="2"/>
         <v>84</v>
       </c>
       <c r="B85" s="1">
@@ -6044,7 +6044,7 @@
     </row>
     <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <f>ROW(A85)</f>
+        <f t="shared" si="2"/>
         <v>85</v>
       </c>
       <c r="B86" s="1">
@@ -6110,7 +6110,7 @@
     </row>
     <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <f>ROW(A86)</f>
+        <f t="shared" si="2"/>
         <v>86</v>
       </c>
       <c r="B87" s="1">
@@ -6176,7 +6176,7 @@
     </row>
     <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <f>ROW(A87)</f>
+        <f t="shared" si="2"/>
         <v>87</v>
       </c>
       <c r="B88" s="1">
@@ -6242,7 +6242,7 @@
     </row>
     <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <f>ROW(A88)</f>
+        <f t="shared" si="2"/>
         <v>88</v>
       </c>
       <c r="B89" s="1">
@@ -6308,7 +6308,7 @@
     </row>
     <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <f>ROW(A89)</f>
+        <f t="shared" si="2"/>
         <v>89</v>
       </c>
       <c r="B90" s="1">
@@ -6374,7 +6374,7 @@
     </row>
     <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <f>ROW(A90)</f>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="B91" s="1">
@@ -6440,7 +6440,7 @@
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <f>ROW(A91)</f>
+        <f t="shared" si="2"/>
         <v>91</v>
       </c>
       <c r="B92" s="1">
@@ -6506,7 +6506,7 @@
     </row>
     <row r="93" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <f>ROW(A92)</f>
+        <f t="shared" si="2"/>
         <v>92</v>
       </c>
       <c r="B93" s="1">
@@ -6572,7 +6572,7 @@
     </row>
     <row r="94" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <f>ROW(A93)</f>
+        <f t="shared" si="2"/>
         <v>93</v>
       </c>
       <c r="B94" s="1">
@@ -6638,7 +6638,7 @@
     </row>
     <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <f>ROW(A94)</f>
+        <f t="shared" si="2"/>
         <v>94</v>
       </c>
       <c r="B95" s="1">
@@ -6704,7 +6704,7 @@
     </row>
     <row r="96" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <f>ROW(A95)</f>
+        <f t="shared" si="2"/>
         <v>95</v>
       </c>
       <c r="B96" s="1">
@@ -6770,7 +6770,7 @@
     </row>
     <row r="97" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <f>ROW(A96)</f>
+        <f t="shared" si="2"/>
         <v>96</v>
       </c>
       <c r="B97" s="1">
@@ -6836,7 +6836,7 @@
     </row>
     <row r="98" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <f>ROW(A97)</f>
+        <f t="shared" ref="A98:A127" si="3">ROW(A97)</f>
         <v>97</v>
       </c>
       <c r="B98" s="1">
@@ -6902,7 +6902,7 @@
     </row>
     <row r="99" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <f>ROW(A98)</f>
+        <f t="shared" si="3"/>
         <v>98</v>
       </c>
       <c r="B99" s="1">
@@ -6968,7 +6968,7 @@
     </row>
     <row r="100" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <f>ROW(A99)</f>
+        <f t="shared" si="3"/>
         <v>99</v>
       </c>
       <c r="B100" s="1">
@@ -7034,7 +7034,7 @@
     </row>
     <row r="101" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <f>ROW(A100)</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="B101" s="1">
@@ -7100,7 +7100,7 @@
     </row>
     <row r="102" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <f>ROW(A101)</f>
+        <f t="shared" si="3"/>
         <v>101</v>
       </c>
       <c r="B102" s="1">
@@ -7166,7 +7166,7 @@
     </row>
     <row r="103" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <f>ROW(A102)</f>
+        <f t="shared" si="3"/>
         <v>102</v>
       </c>
       <c r="B103" s="1">
@@ -7232,7 +7232,7 @@
     </row>
     <row r="104" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <f>ROW(A103)</f>
+        <f t="shared" si="3"/>
         <v>103</v>
       </c>
       <c r="B104" s="1">
@@ -7298,7 +7298,7 @@
     </row>
     <row r="105" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <f>ROW(A104)</f>
+        <f t="shared" si="3"/>
         <v>104</v>
       </c>
       <c r="B105" s="1">
@@ -7364,7 +7364,7 @@
     </row>
     <row r="106" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <f>ROW(A105)</f>
+        <f t="shared" si="3"/>
         <v>105</v>
       </c>
       <c r="B106" s="1">
@@ -7430,212 +7430,1388 @@
     </row>
     <row r="107" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <f>ROW(A106)</f>
+        <f t="shared" si="3"/>
         <v>106</v>
       </c>
-      <c r="B107" s="1"/>
+      <c r="B107" s="1">
+        <v>17</v>
+      </c>
       <c r="C107" s="1">
         <v>12</v>
       </c>
+      <c r="D107" t="s">
+        <v>20</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+      <c r="G107">
+        <v>1</v>
+      </c>
+      <c r="H107">
+        <v>1</v>
+      </c>
+      <c r="J107">
+        <v>4</v>
+      </c>
+      <c r="K107">
+        <v>4</v>
+      </c>
+      <c r="L107">
+        <v>4</v>
+      </c>
+      <c r="M107">
+        <v>3</v>
+      </c>
+      <c r="N107">
+        <v>3</v>
+      </c>
+      <c r="O107">
+        <v>2</v>
+      </c>
+      <c r="P107">
+        <v>3</v>
+      </c>
+      <c r="Q107">
+        <v>3</v>
+      </c>
+      <c r="S107">
+        <v>1</v>
+      </c>
+      <c r="T107">
+        <v>1</v>
+      </c>
+      <c r="U107">
+        <v>0</v>
+      </c>
+      <c r="V107">
+        <v>0</v>
+      </c>
+      <c r="X107">
+        <v>1</v>
+      </c>
+      <c r="Y107">
+        <v>4</v>
+      </c>
     </row>
     <row r="108" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <f>ROW(A107)</f>
+        <f t="shared" si="3"/>
         <v>107</v>
       </c>
-      <c r="B108" s="1"/>
+      <c r="B108" s="1">
+        <v>17</v>
+      </c>
       <c r="C108" s="1">
         <v>12</v>
       </c>
+      <c r="D108" t="s">
+        <v>19</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>1</v>
+      </c>
+      <c r="H108">
+        <v>1</v>
+      </c>
+      <c r="J108">
+        <v>3</v>
+      </c>
+      <c r="K108">
+        <v>2</v>
+      </c>
+      <c r="L108">
+        <v>1</v>
+      </c>
+      <c r="M108">
+        <v>5</v>
+      </c>
+      <c r="N108">
+        <v>3</v>
+      </c>
+      <c r="O108">
+        <v>1</v>
+      </c>
+      <c r="P108">
+        <v>5</v>
+      </c>
+      <c r="Q108">
+        <v>3</v>
+      </c>
+      <c r="S108">
+        <v>1</v>
+      </c>
+      <c r="T108">
+        <v>1</v>
+      </c>
+      <c r="U108">
+        <v>1</v>
+      </c>
+      <c r="V108">
+        <v>1</v>
+      </c>
+      <c r="X108">
+        <v>1</v>
+      </c>
+      <c r="Y108">
+        <v>3</v>
+      </c>
     </row>
     <row r="109" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <f>ROW(A108)</f>
+        <f t="shared" si="3"/>
         <v>108</v>
       </c>
-      <c r="B109" s="1"/>
+      <c r="B109" s="1">
+        <v>17</v>
+      </c>
       <c r="C109" s="1">
         <v>12</v>
       </c>
+      <c r="D109" t="s">
+        <v>19</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>1</v>
+      </c>
+      <c r="H109">
+        <v>1</v>
+      </c>
+      <c r="J109">
+        <v>3</v>
+      </c>
+      <c r="K109">
+        <v>3</v>
+      </c>
+      <c r="L109">
+        <v>3</v>
+      </c>
+      <c r="M109">
+        <v>3</v>
+      </c>
+      <c r="N109">
+        <v>3</v>
+      </c>
+      <c r="O109">
+        <v>3</v>
+      </c>
+      <c r="P109">
+        <v>3</v>
+      </c>
+      <c r="Q109">
+        <v>4</v>
+      </c>
+      <c r="S109">
+        <v>0</v>
+      </c>
+      <c r="T109">
+        <v>1</v>
+      </c>
+      <c r="U109">
+        <v>1</v>
+      </c>
+      <c r="V109">
+        <v>1</v>
+      </c>
+      <c r="X109">
+        <v>1</v>
+      </c>
+      <c r="Y109">
+        <v>5</v>
+      </c>
     </row>
     <row r="110" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <f>ROW(A109)</f>
+        <f t="shared" si="3"/>
         <v>109</v>
       </c>
-      <c r="B110" s="1"/>
+      <c r="B110" s="1">
+        <v>17</v>
+      </c>
       <c r="C110" s="1">
         <v>12</v>
       </c>
+      <c r="D110" t="s">
+        <v>19</v>
+      </c>
+      <c r="F110">
+        <v>1</v>
+      </c>
+      <c r="G110">
+        <v>1</v>
+      </c>
+      <c r="H110">
+        <v>1</v>
+      </c>
+      <c r="J110">
+        <v>4</v>
+      </c>
+      <c r="K110">
+        <v>5</v>
+      </c>
+      <c r="L110">
+        <v>5</v>
+      </c>
+      <c r="M110">
+        <v>4</v>
+      </c>
+      <c r="N110">
+        <v>4</v>
+      </c>
+      <c r="O110">
+        <v>5</v>
+      </c>
+      <c r="P110">
+        <v>5</v>
+      </c>
+      <c r="Q110">
+        <v>3</v>
+      </c>
+      <c r="S110">
+        <v>1</v>
+      </c>
+      <c r="T110">
+        <v>1</v>
+      </c>
+      <c r="U110">
+        <v>0</v>
+      </c>
+      <c r="V110">
+        <v>1</v>
+      </c>
+      <c r="X110">
+        <v>1</v>
+      </c>
+      <c r="Y110">
+        <v>4</v>
+      </c>
     </row>
     <row r="111" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <f>ROW(A110)</f>
+        <f t="shared" si="3"/>
         <v>110</v>
       </c>
-      <c r="B111" s="1"/>
+      <c r="B111" s="1">
+        <v>18</v>
+      </c>
       <c r="C111" s="1">
         <v>12</v>
       </c>
+      <c r="D111" t="s">
+        <v>19</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>1</v>
+      </c>
+      <c r="H111">
+        <v>1</v>
+      </c>
+      <c r="J111">
+        <v>3</v>
+      </c>
+      <c r="K111">
+        <v>3</v>
+      </c>
+      <c r="L111">
+        <v>4</v>
+      </c>
+      <c r="M111">
+        <v>4</v>
+      </c>
+      <c r="N111">
+        <v>2</v>
+      </c>
+      <c r="O111">
+        <v>2</v>
+      </c>
+      <c r="P111">
+        <v>2</v>
+      </c>
+      <c r="Q111">
+        <v>2</v>
+      </c>
+      <c r="S111">
+        <v>1</v>
+      </c>
+      <c r="T111">
+        <v>0</v>
+      </c>
+      <c r="U111">
+        <v>0</v>
+      </c>
+      <c r="V111">
+        <v>0</v>
+      </c>
+      <c r="X111">
+        <v>1</v>
+      </c>
+      <c r="Y111">
+        <v>5</v>
+      </c>
     </row>
     <row r="112" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <f>ROW(A111)</f>
+        <f t="shared" si="3"/>
         <v>111</v>
       </c>
-      <c r="B112" s="1"/>
+      <c r="B112" s="1">
+        <v>17</v>
+      </c>
       <c r="C112" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D112" t="s">
+        <v>19</v>
+      </c>
+      <c r="F112">
+        <v>1</v>
+      </c>
+      <c r="G112">
+        <v>1</v>
+      </c>
+      <c r="H112">
+        <v>1</v>
+      </c>
+      <c r="J112">
+        <v>4</v>
+      </c>
+      <c r="K112">
+        <v>4</v>
+      </c>
+      <c r="L112">
+        <v>4</v>
+      </c>
+      <c r="M112">
+        <v>4</v>
+      </c>
+      <c r="N112">
+        <v>3</v>
+      </c>
+      <c r="O112">
+        <v>4</v>
+      </c>
+      <c r="P112">
+        <v>4</v>
+      </c>
+      <c r="Q112">
+        <v>4</v>
+      </c>
+      <c r="S112">
+        <v>1</v>
+      </c>
+      <c r="T112">
+        <v>1</v>
+      </c>
+      <c r="U112">
+        <v>0</v>
+      </c>
+      <c r="V112">
+        <v>0</v>
+      </c>
+      <c r="X112">
+        <v>1</v>
+      </c>
+      <c r="Y112">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <f>ROW(A112)</f>
+        <f t="shared" si="3"/>
         <v>112</v>
       </c>
-      <c r="B113" s="1"/>
+      <c r="B113" s="1">
+        <v>17</v>
+      </c>
       <c r="C113" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D113" t="s">
+        <v>20</v>
+      </c>
+      <c r="F113">
+        <v>1</v>
+      </c>
+      <c r="G113">
+        <v>1</v>
+      </c>
+      <c r="H113">
+        <v>1</v>
+      </c>
+      <c r="J113">
+        <v>5</v>
+      </c>
+      <c r="K113">
+        <v>5</v>
+      </c>
+      <c r="L113">
+        <v>5</v>
+      </c>
+      <c r="M113">
+        <v>5</v>
+      </c>
+      <c r="N113">
+        <v>5</v>
+      </c>
+      <c r="O113">
+        <v>5</v>
+      </c>
+      <c r="P113">
+        <v>5</v>
+      </c>
+      <c r="Q113">
+        <v>5</v>
+      </c>
+      <c r="S113">
+        <v>1</v>
+      </c>
+      <c r="T113">
+        <v>1</v>
+      </c>
+      <c r="U113">
+        <v>0</v>
+      </c>
+      <c r="V113">
+        <v>1</v>
+      </c>
+      <c r="X113">
+        <v>1</v>
+      </c>
+      <c r="Y113">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <f>ROW(A113)</f>
+        <f t="shared" si="3"/>
         <v>113</v>
       </c>
-      <c r="B114" s="1"/>
+      <c r="B114" s="1">
+        <v>17</v>
+      </c>
       <c r="C114" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D114" t="s">
+        <v>20</v>
+      </c>
+      <c r="F114">
+        <v>1</v>
+      </c>
+      <c r="G114">
+        <v>1</v>
+      </c>
+      <c r="H114">
+        <v>1</v>
+      </c>
+      <c r="J114">
+        <v>5</v>
+      </c>
+      <c r="K114">
+        <v>4</v>
+      </c>
+      <c r="L114">
+        <v>4</v>
+      </c>
+      <c r="M114">
+        <v>4</v>
+      </c>
+      <c r="N114">
+        <v>3</v>
+      </c>
+      <c r="O114">
+        <v>3</v>
+      </c>
+      <c r="P114">
+        <v>3</v>
+      </c>
+      <c r="Q114">
+        <v>4</v>
+      </c>
+      <c r="S114">
+        <v>1</v>
+      </c>
+      <c r="T114">
+        <v>1</v>
+      </c>
+      <c r="U114">
+        <v>0</v>
+      </c>
+      <c r="V114">
+        <v>0</v>
+      </c>
+      <c r="X114">
+        <v>1</v>
+      </c>
+      <c r="Y114">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <f>ROW(A114)</f>
+        <f t="shared" si="3"/>
         <v>114</v>
       </c>
-      <c r="B115" s="1"/>
+      <c r="B115" s="1">
+        <v>17</v>
+      </c>
       <c r="C115" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D115" t="s">
+        <v>20</v>
+      </c>
+      <c r="F115">
+        <v>1</v>
+      </c>
+      <c r="G115">
+        <v>1</v>
+      </c>
+      <c r="H115">
+        <v>1</v>
+      </c>
+      <c r="J115">
+        <v>5</v>
+      </c>
+      <c r="K115">
+        <v>4</v>
+      </c>
+      <c r="L115">
+        <v>4</v>
+      </c>
+      <c r="M115">
+        <v>4</v>
+      </c>
+      <c r="N115">
+        <v>5</v>
+      </c>
+      <c r="O115">
+        <v>5</v>
+      </c>
+      <c r="P115">
+        <v>5</v>
+      </c>
+      <c r="Q115">
+        <v>4</v>
+      </c>
+      <c r="S115">
+        <v>1</v>
+      </c>
+      <c r="T115">
+        <v>1</v>
+      </c>
+      <c r="U115">
+        <v>1</v>
+      </c>
+      <c r="V115">
+        <v>1</v>
+      </c>
+      <c r="X115">
+        <v>1</v>
+      </c>
+      <c r="Y115">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <f>ROW(A115)</f>
+        <f t="shared" si="3"/>
         <v>115</v>
       </c>
-      <c r="B116" s="1"/>
+      <c r="B116" s="1">
+        <v>18</v>
+      </c>
       <c r="C116" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D116" t="s">
+        <v>19</v>
+      </c>
+      <c r="F116">
+        <v>1</v>
+      </c>
+      <c r="G116">
+        <v>1</v>
+      </c>
+      <c r="H116">
+        <v>1</v>
+      </c>
+      <c r="J116">
+        <v>4</v>
+      </c>
+      <c r="K116">
+        <v>3</v>
+      </c>
+      <c r="L116">
+        <v>4</v>
+      </c>
+      <c r="M116">
+        <v>4</v>
+      </c>
+      <c r="N116">
+        <v>4</v>
+      </c>
+      <c r="O116">
+        <v>4</v>
+      </c>
+      <c r="P116">
+        <v>4</v>
+      </c>
+      <c r="Q116">
+        <v>4</v>
+      </c>
+      <c r="S116">
+        <v>1</v>
+      </c>
+      <c r="T116">
+        <v>1</v>
+      </c>
+      <c r="U116">
+        <v>0</v>
+      </c>
+      <c r="V116">
+        <v>1</v>
+      </c>
+      <c r="X116">
+        <v>1</v>
+      </c>
+      <c r="Y116">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <f>ROW(A116)</f>
+        <f t="shared" si="3"/>
         <v>116</v>
       </c>
-      <c r="B117" s="1"/>
+      <c r="B117" s="1">
+        <v>17</v>
+      </c>
       <c r="C117" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D117" t="s">
+        <v>20</v>
+      </c>
+      <c r="F117">
+        <v>1</v>
+      </c>
+      <c r="G117">
+        <v>1</v>
+      </c>
+      <c r="H117">
+        <v>1</v>
+      </c>
+      <c r="J117">
+        <v>5</v>
+      </c>
+      <c r="K117">
+        <v>5</v>
+      </c>
+      <c r="L117">
+        <v>5</v>
+      </c>
+      <c r="M117">
+        <v>4</v>
+      </c>
+      <c r="N117">
+        <v>4</v>
+      </c>
+      <c r="O117">
+        <v>3</v>
+      </c>
+      <c r="P117">
+        <v>4</v>
+      </c>
+      <c r="Q117">
+        <v>4</v>
+      </c>
+      <c r="S117">
+        <v>1</v>
+      </c>
+      <c r="T117">
+        <v>1</v>
+      </c>
+      <c r="U117">
+        <v>1</v>
+      </c>
+      <c r="V117">
+        <v>1</v>
+      </c>
+      <c r="X117">
+        <v>0</v>
+      </c>
+      <c r="Y117">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <f>ROW(A117)</f>
+        <f t="shared" si="3"/>
         <v>117</v>
       </c>
-      <c r="B118" s="1"/>
+      <c r="B118" s="1">
+        <v>17</v>
+      </c>
       <c r="C118" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D118" t="s">
+        <v>19</v>
+      </c>
+      <c r="F118">
+        <v>1</v>
+      </c>
+      <c r="G118">
+        <v>1</v>
+      </c>
+      <c r="H118">
+        <v>1</v>
+      </c>
+      <c r="J118">
+        <v>4</v>
+      </c>
+      <c r="K118">
+        <v>3</v>
+      </c>
+      <c r="L118">
+        <v>3</v>
+      </c>
+      <c r="M118">
+        <v>4</v>
+      </c>
+      <c r="N118">
+        <v>4</v>
+      </c>
+      <c r="O118">
+        <v>4</v>
+      </c>
+      <c r="P118">
+        <v>3</v>
+      </c>
+      <c r="Q118">
+        <v>3</v>
+      </c>
+      <c r="S118">
+        <v>1</v>
+      </c>
+      <c r="T118">
+        <v>1</v>
+      </c>
+      <c r="U118">
+        <v>1</v>
+      </c>
+      <c r="V118">
+        <v>0</v>
+      </c>
+      <c r="X118">
+        <v>1</v>
+      </c>
+      <c r="Y118">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <f>ROW(A118)</f>
+        <f t="shared" si="3"/>
         <v>118</v>
       </c>
-      <c r="B119" s="1"/>
+      <c r="B119" s="1">
+        <v>17</v>
+      </c>
       <c r="C119" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D119" t="s">
+        <v>20</v>
+      </c>
+      <c r="F119">
+        <v>1</v>
+      </c>
+      <c r="G119">
+        <v>1</v>
+      </c>
+      <c r="H119">
+        <v>1</v>
+      </c>
+      <c r="J119">
+        <v>4</v>
+      </c>
+      <c r="K119">
+        <v>4</v>
+      </c>
+      <c r="L119">
+        <v>4</v>
+      </c>
+      <c r="M119">
+        <v>4</v>
+      </c>
+      <c r="N119">
+        <v>4</v>
+      </c>
+      <c r="O119">
+        <v>5</v>
+      </c>
+      <c r="P119">
+        <v>4</v>
+      </c>
+      <c r="Q119">
+        <v>4</v>
+      </c>
+      <c r="S119">
+        <v>1</v>
+      </c>
+      <c r="T119">
+        <v>1</v>
+      </c>
+      <c r="U119">
+        <v>1</v>
+      </c>
+      <c r="V119">
+        <v>0</v>
+      </c>
+      <c r="X119">
+        <v>1</v>
+      </c>
+      <c r="Y119">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <f>ROW(A119)</f>
+        <f t="shared" si="3"/>
         <v>119</v>
       </c>
-      <c r="B120" s="1"/>
+      <c r="B120" s="1">
+        <v>17</v>
+      </c>
       <c r="C120" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D120" t="s">
+        <v>20</v>
+      </c>
+      <c r="F120">
+        <v>1</v>
+      </c>
+      <c r="G120">
+        <v>1</v>
+      </c>
+      <c r="H120">
+        <v>1</v>
+      </c>
+      <c r="J120">
+        <v>4</v>
+      </c>
+      <c r="K120">
+        <v>3</v>
+      </c>
+      <c r="L120">
+        <v>4</v>
+      </c>
+      <c r="M120">
+        <v>4</v>
+      </c>
+      <c r="N120">
+        <v>3</v>
+      </c>
+      <c r="O120">
+        <v>3</v>
+      </c>
+      <c r="P120">
+        <v>4</v>
+      </c>
+      <c r="Q120">
+        <v>4</v>
+      </c>
+      <c r="S120">
+        <v>1</v>
+      </c>
+      <c r="T120">
+        <v>1</v>
+      </c>
+      <c r="U120">
+        <v>1</v>
+      </c>
+      <c r="V120">
+        <v>1</v>
+      </c>
+      <c r="X120">
+        <v>1</v>
+      </c>
+      <c r="Y120">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <f>ROW(A120)</f>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="B121" s="1"/>
+      <c r="B121" s="1">
+        <v>17</v>
+      </c>
       <c r="C121" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D121" t="s">
+        <v>20</v>
+      </c>
+      <c r="F121">
+        <v>1</v>
+      </c>
+      <c r="G121">
+        <v>1</v>
+      </c>
+      <c r="H121">
+        <v>1</v>
+      </c>
+      <c r="J121">
+        <v>4</v>
+      </c>
+      <c r="K121">
+        <v>4</v>
+      </c>
+      <c r="L121">
+        <v>3</v>
+      </c>
+      <c r="M121">
+        <v>3</v>
+      </c>
+      <c r="N121">
+        <v>3</v>
+      </c>
+      <c r="O121">
+        <v>3</v>
+      </c>
+      <c r="P121">
+        <v>4</v>
+      </c>
+      <c r="Q121">
+        <v>4</v>
+      </c>
+      <c r="S121">
+        <v>0</v>
+      </c>
+      <c r="T121">
+        <v>0</v>
+      </c>
+      <c r="U121">
+        <v>0</v>
+      </c>
+      <c r="V121">
+        <v>0</v>
+      </c>
+      <c r="X121">
+        <v>1</v>
+      </c>
+      <c r="Y121">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <f>ROW(A121)</f>
+        <f t="shared" si="3"/>
         <v>121</v>
       </c>
-      <c r="B122" s="1"/>
+      <c r="B122" s="1">
+        <v>17</v>
+      </c>
       <c r="C122" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D122" t="s">
+        <v>19</v>
+      </c>
+      <c r="F122">
+        <v>1</v>
+      </c>
+      <c r="G122">
+        <v>1</v>
+      </c>
+      <c r="H122">
+        <v>1</v>
+      </c>
+      <c r="J122">
+        <v>3</v>
+      </c>
+      <c r="K122">
+        <v>4</v>
+      </c>
+      <c r="L122">
+        <v>4</v>
+      </c>
+      <c r="M122">
+        <v>4</v>
+      </c>
+      <c r="N122">
+        <v>3</v>
+      </c>
+      <c r="O122">
+        <v>3</v>
+      </c>
+      <c r="P122">
+        <v>3</v>
+      </c>
+      <c r="Q122">
+        <v>4</v>
+      </c>
+      <c r="S122">
+        <v>1</v>
+      </c>
+      <c r="T122">
+        <v>1</v>
+      </c>
+      <c r="U122">
+        <v>0</v>
+      </c>
+      <c r="V122">
+        <v>1</v>
+      </c>
+      <c r="X122">
+        <v>1</v>
+      </c>
+      <c r="Y122">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <f>ROW(A122)</f>
+        <f t="shared" si="3"/>
         <v>122</v>
       </c>
-      <c r="B123" s="1"/>
+      <c r="B123" s="1">
+        <v>17</v>
+      </c>
       <c r="C123" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D123" t="s">
+        <v>19</v>
+      </c>
+      <c r="F123">
+        <v>1</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>4</v>
+      </c>
+      <c r="K123">
+        <v>4</v>
+      </c>
+      <c r="L123">
+        <v>4</v>
+      </c>
+      <c r="M123">
+        <v>3</v>
+      </c>
+      <c r="N123">
+        <v>4</v>
+      </c>
+      <c r="O123">
+        <v>3</v>
+      </c>
+      <c r="P123">
+        <v>3</v>
+      </c>
+      <c r="Q123">
+        <v>2</v>
+      </c>
+      <c r="S123">
+        <v>1</v>
+      </c>
+      <c r="T123">
+        <v>0</v>
+      </c>
+      <c r="U123">
+        <v>1</v>
+      </c>
+      <c r="V123">
+        <v>1</v>
+      </c>
+      <c r="X123">
+        <v>0</v>
+      </c>
+      <c r="Y123">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <f>ROW(A123)</f>
+        <f t="shared" si="3"/>
         <v>123</v>
       </c>
-      <c r="B124" s="1"/>
+      <c r="B124" s="1">
+        <v>18</v>
+      </c>
       <c r="C124" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D124" t="s">
+        <v>19</v>
+      </c>
+      <c r="F124">
+        <v>1</v>
+      </c>
+      <c r="G124">
+        <v>1</v>
+      </c>
+      <c r="H124">
+        <v>1</v>
+      </c>
+      <c r="J124">
+        <v>5</v>
+      </c>
+      <c r="K124">
+        <v>4</v>
+      </c>
+      <c r="L124">
+        <v>4</v>
+      </c>
+      <c r="M124">
+        <v>4</v>
+      </c>
+      <c r="N124">
+        <v>5</v>
+      </c>
+      <c r="O124">
+        <v>5</v>
+      </c>
+      <c r="P124">
+        <v>4</v>
+      </c>
+      <c r="Q124">
+        <v>4</v>
+      </c>
+      <c r="S124">
+        <v>1</v>
+      </c>
+      <c r="T124">
+        <v>1</v>
+      </c>
+      <c r="U124">
+        <v>1</v>
+      </c>
+      <c r="V124">
+        <v>1</v>
+      </c>
+      <c r="X124">
+        <v>1</v>
+      </c>
+      <c r="Y124">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <f>ROW(A124)</f>
+        <f t="shared" si="3"/>
         <v>124</v>
       </c>
-      <c r="B125" s="1"/>
+      <c r="B125" s="1">
+        <v>17</v>
+      </c>
       <c r="C125" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D125" t="s">
+        <v>20</v>
+      </c>
+      <c r="F125">
+        <v>1</v>
+      </c>
+      <c r="G125">
+        <v>1</v>
+      </c>
+      <c r="H125">
+        <v>1</v>
+      </c>
+      <c r="J125">
+        <v>4</v>
+      </c>
+      <c r="K125">
+        <v>4</v>
+      </c>
+      <c r="L125">
+        <v>4</v>
+      </c>
+      <c r="M125">
+        <v>4</v>
+      </c>
+      <c r="N125">
+        <v>4</v>
+      </c>
+      <c r="O125">
+        <v>3</v>
+      </c>
+      <c r="P125">
+        <v>4</v>
+      </c>
+      <c r="Q125">
+        <v>4</v>
+      </c>
+      <c r="S125">
+        <v>1</v>
+      </c>
+      <c r="T125">
+        <v>1</v>
+      </c>
+      <c r="U125">
+        <v>1</v>
+      </c>
+      <c r="V125">
+        <v>0</v>
+      </c>
+      <c r="X125">
+        <v>1</v>
+      </c>
+      <c r="Y125">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <f>ROW(A125)</f>
+        <f t="shared" si="3"/>
         <v>125</v>
       </c>
-      <c r="B126" s="1"/>
+      <c r="B126" s="1">
+        <v>18</v>
+      </c>
       <c r="C126" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D126" t="s">
+        <v>19</v>
+      </c>
+      <c r="F126">
+        <v>1</v>
+      </c>
+      <c r="G126">
+        <v>1</v>
+      </c>
+      <c r="H126">
+        <v>1</v>
+      </c>
+      <c r="J126">
+        <v>5</v>
+      </c>
+      <c r="K126">
+        <v>4</v>
+      </c>
+      <c r="L126">
+        <v>4</v>
+      </c>
+      <c r="M126">
+        <v>4</v>
+      </c>
+      <c r="N126">
+        <v>4</v>
+      </c>
+      <c r="O126">
+        <v>4</v>
+      </c>
+      <c r="P126">
+        <v>4</v>
+      </c>
+      <c r="Q126">
+        <v>4</v>
+      </c>
+      <c r="S126">
+        <v>1</v>
+      </c>
+      <c r="T126">
+        <v>1</v>
+      </c>
+      <c r="U126">
+        <v>1</v>
+      </c>
+      <c r="V126">
+        <v>0</v>
+      </c>
+      <c r="X126">
+        <v>1</v>
+      </c>
+      <c r="Y126">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <f>ROW(A126)</f>
+        <f t="shared" si="3"/>
         <v>126</v>
       </c>
-      <c r="B127" s="1"/>
+      <c r="B127" s="1">
+        <v>17</v>
+      </c>
       <c r="C127" s="1">
         <v>12</v>
+      </c>
+      <c r="D127" t="s">
+        <v>20</v>
+      </c>
+      <c r="F127">
+        <v>1</v>
+      </c>
+      <c r="G127">
+        <v>1</v>
+      </c>
+      <c r="H127">
+        <v>1</v>
+      </c>
+      <c r="J127">
+        <v>5</v>
+      </c>
+      <c r="K127">
+        <v>5</v>
+      </c>
+      <c r="L127">
+        <v>5</v>
+      </c>
+      <c r="M127">
+        <v>5</v>
+      </c>
+      <c r="N127">
+        <v>4</v>
+      </c>
+      <c r="O127">
+        <v>4</v>
+      </c>
+      <c r="P127">
+        <v>5</v>
+      </c>
+      <c r="Q127">
+        <v>5</v>
+      </c>
+      <c r="S127">
+        <v>1</v>
+      </c>
+      <c r="T127">
+        <v>1</v>
+      </c>
+      <c r="U127">
+        <v>0</v>
+      </c>
+      <c r="V127">
+        <v>1</v>
+      </c>
+      <c r="X127">
+        <v>1</v>
+      </c>
+      <c r="Y127">
+        <v>4</v>
       </c>
     </row>
     <row r="1048576" spans="3:3" x14ac:dyDescent="0.25">
